--- a/Base/Teams/Browns/Distributions.xlsx
+++ b/Base/Teams/Browns/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9247466813598735, 0.7280133835442122, 1.1567789138359985, 3.257874424893341)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4220522016963906, 1.2279496252961088, 2.4578476662519364, 4.81305818501453)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9978538146808058, 1.1083377432371082, 0.4466897507246177, 2.4558835427918693)</t>
-  </si>
-  <si>
-    <t>NCT(3.158342413244519, 1.6541944101178232, -0.018198884717691002, 4.899746962354281)</t>
+    <t>NIG(0.9494948151808758, 0.7473989913805523, 1.1031716645083636, 3.2278711134822036)</t>
+  </si>
+  <si>
+    <t>JSU(-1.421257629543053, 1.212392539523929, 2.323854466628398, 4.605743585923996)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9764156446533655, 1.0993949661274143, 0.5082753994897704, 2.488298352224855)</t>
+  </si>
+  <si>
+    <t>NCT(3.044666318331854, 1.6387985353753538, -0.016454828117430403, 4.7913157623756)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Browns/Distributions.xlsx
+++ b/Base/Teams/Browns/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9494948151808758, 0.7473989913805523, 1.1031716645083636, 3.2278711134822036)</t>
-  </si>
-  <si>
-    <t>JSU(-1.421257629543053, 1.212392539523929, 2.323854466628398, 4.605743585923996)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9764156446533655, 1.0993949661274143, 0.5082753994897704, 2.488298352224855)</t>
-  </si>
-  <si>
-    <t>NCT(3.044666318331854, 1.6387985353753538, -0.016454828117430403, 4.7913157623756)</t>
+    <t>JSU(-1.002473958785314, 1.0376526008197926, 0.5664992829547559, 2.70894152035578)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4154384521439676, 1.1889270007873973, 2.4168454981494905, 4.233756044135445)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9639947332828787, 1.1224219643730122, 0.6037600124686713, 2.6108148654236505)</t>
+  </si>
+  <si>
+    <t>NCT(3.2318354626547663, 1.6426684988699376, -0.020866179492713, 4.7661895453193)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Browns/Distributions.xlsx
+++ b/Base/Teams/Browns/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.002473958785314, 1.0376526008197926, 0.5664992829547559, 2.70894152035578)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4154384521439676, 1.1889270007873973, 2.4168454981494905, 4.233756044135445)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9639947332828787, 1.1224219643730122, 0.6037600124686713, 2.6108148654236505)</t>
-  </si>
-  <si>
-    <t>NCT(3.2318354626547663, 1.6426684988699376, -0.020866179492713, 4.7661895453193)</t>
+    <t>JSU(-0.977869842962853, 1.0222959807518261, 0.6292826406311872, 2.64824563716967)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4382036252289248, 1.2022004731650933, 2.2972591131821076, 4.2882976805457265)</t>
+  </si>
+  <si>
+    <t>JSU(-0.953943921961079, 1.1015774363053588, 0.7086876866351115, 2.5698407400848913)</t>
+  </si>
+  <si>
+    <t>NCT(3.267177661873953, 1.5925321342597303, -0.018666485496264724, 4.749215643126205)</t>
   </si>
 </sst>
 </file>
